--- a/cafe-yuta-ebara/新しいフォルダー/新規 Microsoft Excel ワークシート.xlsx
+++ b/cafe-yuta-ebara/新しいフォルダー/新規 Microsoft Excel ワークシート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>資金計画</t>
     <rPh sb="0" eb="2">
@@ -48,6 +48,179 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ダイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人件費</t>
+    <rPh sb="0" eb="3">
+      <t>ジンケンヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光熱費</t>
+    <rPh sb="0" eb="3">
+      <t>コウネツヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPS使用料1っヶ月</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告代</t>
+    <rPh sb="0" eb="2">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道具費</t>
+    <rPh sb="0" eb="2">
+      <t>ドウグ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芸能人、スタッフ食費</t>
+    <rPh sb="0" eb="2">
+      <t>ゲイノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショクヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット販売額（1枚当たり）6500円）</t>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケットが全て売れた額</t>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資金計画費用ーチケット売れる額＝</t>
+    <rPh sb="0" eb="2">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売目標</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット販売目標枚数約（200枚）</t>
+    <rPh sb="4" eb="6">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約150枚</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約390,000万円の利益が出ると予想される。</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,33 +572,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>975000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cafe-yuta-ebara/新しいフォルダー/新規 Microsoft Excel ワークシート.xlsx
+++ b/cafe-yuta-ebara/新しいフォルダー/新規 Microsoft Excel ワークシート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>資金計画</t>
     <rPh sb="0" eb="2">
@@ -112,115 +112,6 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケット販売額（1枚当たり）6500円）</t>
-    <rPh sb="4" eb="6">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケットが全て売れた額</t>
-    <rPh sb="5" eb="6">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資金計画費用ーチケット売れる額＝</t>
-    <rPh sb="0" eb="2">
-      <t>シキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>販売目標</t>
-    <rPh sb="0" eb="2">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケット販売目標枚数約（200枚）</t>
-    <rPh sb="4" eb="6">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>マイスウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>約150枚</t>
-    <rPh sb="0" eb="1">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>約390,000万円の利益が出ると予想される。</t>
-    <rPh sb="0" eb="1">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>マンエン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,9 +463,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -660,42 +551,11 @@
         <v>585000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>975000</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>390000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
